--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,10 +60,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,9 +438,9 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="32" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +456,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Аналитик</t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -471,7 +466,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Аналитик</t>
+          <t>Количество вакансий - Программист</t>
         </is>
       </c>
     </row>
@@ -480,16 +475,16 @@
         <v>2007</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>38916</v>
+        <v>48750</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>40641</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2196</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +492,16 @@
         <v>2008</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43646</v>
+        <v>46038</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>48428</v>
+        <v>56233</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>17549</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>196</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +509,16 @@
         <v>2009</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>42492</v>
+        <v>31592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>48109</v>
+        <v>45000</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>17709</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>171</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -531,468 +526,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43846</v>
+        <v>41863</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>49577</v>
+        <v>90000</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>29093</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>47451</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>52794</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>36700</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>48243</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>58341</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>44153</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>51510</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>57004</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>59954</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>50658</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>58768</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>66837</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>52696</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>53326</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>70039</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>62675</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>54236</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>75145</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>60935</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>56558</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>82823</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>58335</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>61080</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>131701</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>69467</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>71288</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>115086</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>73431</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>80145</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>102243</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>82690</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>87473</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>57623</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>91795</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>91340</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>18294</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>305</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Уровень зарплаты</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Доля вакансий</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>65286</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>32.46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>76970</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>11.97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>60962</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Красноярск</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46922</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>2.37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>62254</v>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>2.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>47662</v>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Ростов-на-Дону</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>2.09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>51644</v>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>52580</v>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Челябинск</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>51265</v>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Пермь</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>48089</v>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Воронеж</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,70 +472,274 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>48750</v>
+        <v>38916</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>43770</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2</v>
+        <v>2196</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>46038</v>
+        <v>43646</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>56233</v>
+        <v>50412</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>18</v>
+        <v>17549</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>3</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>31592</v>
+        <v>42492</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45000</v>
+        <v>46699</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>19</v>
+        <v>17709</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43846</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>50570</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>29093</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>41863</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>90000</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
+      <c r="B6" s="1" t="n">
+        <v>47451</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>55770</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>36700</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>48243</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>57960</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>44153</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>51510</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>58804</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>59954</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>50658</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>62384</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>66837</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>52696</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>62322</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>70039</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>62675</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>66817</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>75145</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>60935</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>72460</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>82823</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>58335</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>76879</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>131701</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>69467</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>115086</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>73431</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>89791</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>102243</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>82690</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>100987</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>57623</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>91795</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>116651</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>18294</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1115</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>38916</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43646</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>42492</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43846</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>47451</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>48243</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>51510</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>50658</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>52696</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>62675</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>60935</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>58335</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>69467</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>73431</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>82690</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>91795</v>
